--- a/data_elec/listado_gra_emp_materias_Sep2023.xlsx
+++ b/data_elec/listado_gra_emp_materias_Sep2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pablo/Documents/dev/UPS/ABET/back/db/data_elec/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B92190-CC23-E048-8456-C2E513F97B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48DA4596-B9B6-3A4B-ACE4-742DAC06CC86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="760" windowWidth="30360" windowHeight="16780" xr2:uid="{7521FC06-C1AA-D244-AD77-E6990238288A}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30360" windowHeight="16780" xr2:uid="{7521FC06-C1AA-D244-AD77-E6990238288A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -288,7 +288,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -299,6 +299,14 @@
     <font>
       <sz val="11"/>
       <name val="Dialog"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
@@ -336,10 +344,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -350,8 +359,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -666,8 +677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA1DA9AB-9D2E-EC48-BCD5-2DA08604EAE3}">
   <dimension ref="A1:U20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I20"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1499,7 +1510,7 @@
       <c r="M13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="N13" s="4" t="s">
+      <c r="N13" s="6" t="s">
         <v>33</v>
       </c>
       <c r="O13" s="4">
@@ -1961,7 +1972,10 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:U17" xr:uid="{BA1DA9AB-9D2E-EC48-BCD5-2DA08604EAE3}"/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="N13" r:id="rId1" xr:uid="{31EAD9D4-5759-1743-B08D-98433FC4AD1A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
